--- a/biology/Médecine/Walter_Morley_Fletcher/Walter_Morley_Fletcher.xlsx
+++ b/biology/Médecine/Walter_Morley_Fletcher/Walter_Morley_Fletcher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walter Morley Fletcher (21 juillet 1873 - 7 juin 1933)[2] est un physiologiste et administrateur britannique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walter Morley Fletcher (21 juillet 1873 - 7 juin 1933) est un physiologiste et administrateur britannique. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fletcher est diplômé du Trinity College de Cambridge et joue un grand rôle dans l'administration du Conseil de la recherche médicale pendant l'entre-deux-guerres. Sous sa direction, le MRC concentre son financement sur la recherche scientifique fondamentale au détriment de la recherche clinique, mais il fait de la Grande-Bretagne un chef de file de la recherche biomédicale à l'époque.
 </t>
